--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2020 - Spring\AE551 - Introduction to Optimal Control\Homework\Homework 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8B908-0FC1-4748-AD69-23B66B0CE3F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D8C830-F59A-4246-9BBA-10C19A851680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6AB35B60-2BE9-45F9-913F-3D92C591DF67}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="16">
   <si>
     <t>f1</t>
   </si>
@@ -153,9 +153,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2151291124925581E-2"/>
+          <c:x val="0.1304553905216092"/>
           <c:y val="2.8953552603245041E-2"/>
-          <c:w val="0.8887231720180192"/>
+          <c:w val="0.82082838590045826"/>
           <c:h val="0.71632452555496262"/>
         </c:manualLayout>
       </c:layout>
@@ -238,34 +238,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,34 +353,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,34 +468,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,28 +589,28 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +631,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -642,11 +642,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -698,34 +698,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,6 +892,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6369034194018935E-3"/>
+              <c:y val="0.22131913041035867"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1032,9 +1095,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1141732283464567"/>
+          <c:x val="0.12959677525689062"/>
           <c:y val="3.6288262000349666E-2"/>
-          <c:w val="0.83685668783624367"/>
+          <c:w val="0.82143318137687948"/>
           <c:h val="0.70898989168343007"/>
         </c:manualLayout>
       </c:layout>
@@ -1050,7 +1113,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1117,34 +1182,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4241140000000001</c:v>
+                  <c:v>1.049783E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.380147</c:v>
+                  <c:v>4.0749719999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94901089999999999</c:v>
+                  <c:v>8.8261259999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38712829999999998</c:v>
+                  <c:v>4.495058E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68510550000000003</c:v>
+                  <c:v>1.6981610000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2570839999999999</c:v>
+                  <c:v>1.1589129999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2461719999999996</c:v>
+                  <c:v>2.3750090000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36536970000000002</c:v>
+                  <c:v>2.1902249999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2608490000000003</c:v>
+                  <c:v>4.6752930000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33785270000000001</c:v>
+                  <c:v>6.1416129999999994E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,34 +1297,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2364440000000001</c:v>
+                  <c:v>0.15861749999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3575809999999999</c:v>
+                  <c:v>9.8923359999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.429041</c:v>
+                  <c:v>8.6536330000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4889110000000001</c:v>
+                  <c:v>7.3062579999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1996230000000001</c:v>
+                  <c:v>2.4601860000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0041850000000001</c:v>
+                  <c:v>4.5562339999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0703389999999999</c:v>
+                  <c:v>1.10719E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5038009999999999</c:v>
+                  <c:v>2.389393E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.497371</c:v>
+                  <c:v>2.0556479999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.51302</c:v>
+                  <c:v>2.051082E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,34 +1412,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1228720000000001</c:v>
+                  <c:v>1.8909619999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2660830000000001</c:v>
+                  <c:v>5.8941810000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65732029999999997</c:v>
+                  <c:v>1.156776E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.269671</c:v>
+                  <c:v>3.8222320000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.299131</c:v>
+                  <c:v>1.2076490000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.300179</c:v>
+                  <c:v>1.245541E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0332969999999999</c:v>
+                  <c:v>3.1314420000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.203754</c:v>
+                  <c:v>1.038358E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2657389999999999</c:v>
+                  <c:v>8.0410270000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0707009999999999</c:v>
+                  <c:v>8.6489909999999993E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1460,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1462,34 +1529,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5467630000000001</c:v>
+                  <c:v>1.8909619999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.491323</c:v>
+                  <c:v>5.8941820000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.039747</c:v>
+                  <c:v>1.1567750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2407550000000001</c:v>
+                  <c:v>3.822237E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0966640000000001</c:v>
+                  <c:v>1.207648E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81182900000000002</c:v>
+                  <c:v>1.245638E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97655700000000001</c:v>
+                  <c:v>3.1315250000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72134940000000003</c:v>
+                  <c:v>1.018082E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47445599999999999</c:v>
+                  <c:v>8.0409349999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80631750000000002</c:v>
+                  <c:v>8.6452060000000005E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,7 +1577,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1521,11 +1590,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1577,34 +1646,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1485179999999999</c:v>
+                  <c:v>1.890971E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3323389999999999</c:v>
+                  <c:v>5.8947280000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82202869999999995</c:v>
+                  <c:v>1.1565530000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69854150000000004</c:v>
+                  <c:v>3.8240929999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37412109999999998</c:v>
+                  <c:v>1.207574E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70570080000000002</c:v>
+                  <c:v>1.28427E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64561250000000003</c:v>
+                  <c:v>3.1644909999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26607819999999999</c:v>
+                  <c:v>3.0098369999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64067300000000005</c:v>
+                  <c:v>8.0044359999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53697989999999995</c:v>
+                  <c:v>7.1421890000000001E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,6 +1840,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3830836311046215E-3"/>
+              <c:y val="0.34133564353191209"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1789,7 +1921,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1906,7 +2038,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13564096439750153"/>
+          <c:y val="4.0797397844425536E-2"/>
+          <c:w val="0.83005701843309032"/>
+          <c:h val="0.70967672223718092"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1986,34 +2128,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,34 +2243,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,34 +2358,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,34 +2473,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,7 +2521,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2390,11 +2532,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2446,34 +2588,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,6 +2778,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8251064408888231E-4"/>
+              <c:y val="0.23014667788862808"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2771,7 +2976,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12961174418636945"/>
+          <c:y val="4.0790726927544339E-2"/>
+          <c:w val="0.83167723900805146"/>
+          <c:h val="0.70972419395246089"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2851,34 +3066,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.057707</c:v>
+                  <c:v>4.917907E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83253169999999999</c:v>
+                  <c:v>1.2644850000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2846140000000004</c:v>
+                  <c:v>1.090712E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.052921</c:v>
+                  <c:v>1.901952E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2477679999999998</c:v>
+                  <c:v>5.3402880000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99535039999999997</c:v>
+                  <c:v>4.0267660000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0254259999999999</c:v>
+                  <c:v>2.5482070000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0324610000000001</c:v>
+                  <c:v>1.178867E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0402849999999999</c:v>
+                  <c:v>2.4473689999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0375369999999999</c:v>
+                  <c:v>1.6843620000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,34 +3181,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4621459999999999</c:v>
+                  <c:v>6.8342660000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90068999999999999</c:v>
+                  <c:v>7.160001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.361955</c:v>
+                  <c:v>3.6798569999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3471329999999999</c:v>
+                  <c:v>1.782343E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3005580000000001</c:v>
+                  <c:v>3.83432E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4596389999999999</c:v>
+                  <c:v>4.0099899999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65690970000000004</c:v>
+                  <c:v>6.0163009999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.056149</c:v>
+                  <c:v>7.1543529999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.459476</c:v>
+                  <c:v>1.031073E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4624200000000001</c:v>
+                  <c:v>2.0393910000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,34 +3296,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2996160000000001</c:v>
+                  <c:v>6.0948959999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.338273</c:v>
+                  <c:v>2.4142069999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.105507</c:v>
+                  <c:v>3.5213840000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1957139999999999</c:v>
+                  <c:v>6.5568549999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.296419</c:v>
+                  <c:v>3.8656930000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1863109999999999</c:v>
+                  <c:v>4.8468289999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.298017</c:v>
+                  <c:v>2.4792070000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2230780000000001</c:v>
+                  <c:v>3.1815059999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4111659999999999</c:v>
+                  <c:v>7.5048190000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71065480000000003</c:v>
+                  <c:v>6.9829919999999995E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,34 +3411,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4534389999999999</c:v>
+                  <c:v>6.094894E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.500041</c:v>
+                  <c:v>2.4142069999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3908860000000001</c:v>
+                  <c:v>3.5213789999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3845700000000001</c:v>
+                  <c:v>6.5568560000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.498653</c:v>
+                  <c:v>3.8656930000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3161750000000001</c:v>
+                  <c:v>4.8468289999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1092070000000001</c:v>
+                  <c:v>2.4792050000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.132649</c:v>
+                  <c:v>3.1815120000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4498709999999999</c:v>
+                  <c:v>7.5048119999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.267533</c:v>
+                  <c:v>6.9829919999999995E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,7 +3459,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3255,11 +3470,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3311,34 +3526,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2345200000000001</c:v>
+                  <c:v>6.0940050000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0697859999999999</c:v>
+                  <c:v>2.414116E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96598589999999995</c:v>
+                  <c:v>3.5195840000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0902259999999999</c:v>
+                  <c:v>6.5570549999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0595559999999999</c:v>
+                  <c:v>3.8656900000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1287750000000001</c:v>
+                  <c:v>4.847001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63974909999999996</c:v>
+                  <c:v>2.4785189999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81590059999999998</c:v>
+                  <c:v>3.1839479999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98646730000000005</c:v>
+                  <c:v>7.5017909999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87315220000000004</c:v>
+                  <c:v>6.9831790000000004E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,6 +3717,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3862,34 +4132,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8736,15 +9006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>439084</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:colOff>77134</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8813,14 +9083,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185739</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9233,21 +9503,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EBCC39-7A26-47FD-B6F1-9E1CD5D63FBF}">
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M62"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
@@ -9299,16 +9569,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4.4999999999999997E-3</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="E5">
-        <v>-1.84E-2</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="F5" s="1">
-        <v>1.4241140000000001</v>
+        <v>1.049783E-2</v>
       </c>
       <c r="H5" s="1">
         <v>0.1</v>
@@ -9317,16 +9587,16 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0.38750000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="L5">
-        <v>0.13769999999999999</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1.057707</v>
+        <v>4.917907E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -9337,16 +9607,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3.09E-2</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="E6">
-        <v>1.7299999999999999E-2</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>1.380147</v>
+        <v>4.0749719999999996E-3</v>
       </c>
       <c r="H6" s="1">
         <v>0.1</v>
@@ -9355,16 +9625,16 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>0.55630000000000002</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L6">
-        <v>0.29559999999999997</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>0.83253169999999999</v>
+        <v>1.2644850000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9375,16 +9645,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.46600000000000003</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="E7">
-        <v>0.2155</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F7" s="1">
-        <v>0.94901089999999999</v>
+        <v>8.8261259999999995E-4</v>
       </c>
       <c r="H7" s="1">
         <v>0.1</v>
@@ -9393,16 +9663,16 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>-1.9941</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="L7">
-        <v>4.0648</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>4.2846140000000004</v>
+        <v>1.090712E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9413,16 +9683,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.81730000000000003</v>
+        <v>1.0003</v>
       </c>
       <c r="E8">
-        <v>0.65869999999999995</v>
+        <v>1.0003</v>
       </c>
       <c r="F8" s="1">
-        <v>0.38712829999999998</v>
+        <v>4.495058E-4</v>
       </c>
       <c r="H8" s="1">
         <v>0.1</v>
@@ -9431,16 +9701,16 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>0.3881</v>
+        <v>1.0001</v>
       </c>
       <c r="L8">
-        <v>0.1431</v>
+        <v>1.0001</v>
       </c>
       <c r="M8" s="1">
-        <v>1.052921</v>
+        <v>1.901952E-4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9451,16 +9721,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0.65380000000000005</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.4088</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0.68510550000000003</v>
+        <v>1.6981610000000001E-5</v>
       </c>
       <c r="H9" s="1">
         <v>0.1</v>
@@ -9469,16 +9739,16 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>-1.9942</v>
+        <v>1.0004</v>
       </c>
       <c r="L9">
-        <v>4.0130999999999997</v>
+        <v>1.0004</v>
       </c>
       <c r="M9" s="1">
-        <v>4.2477679999999998</v>
+        <v>5.3402880000000003E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9489,16 +9759,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>-1.9975000000000001</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4.0228999999999999</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>4.2570839999999999</v>
+        <v>1.1589129999999999E-5</v>
       </c>
       <c r="H10" s="1">
         <v>0.1</v>
@@ -9507,16 +9777,16 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>0.43880000000000002</v>
+        <v>1.0003</v>
       </c>
       <c r="L10">
-        <v>0.17799999999999999</v>
+        <v>1.0003</v>
       </c>
       <c r="M10" s="1">
-        <v>0.99535039999999997</v>
+        <v>4.0267660000000002E-4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9527,16 +9797,16 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>-1.9975000000000001</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>4.0075000000000003</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>4.2461719999999996</v>
+        <v>2.3750090000000002E-6</v>
       </c>
       <c r="H11" s="1">
         <v>0.1</v>
@@ -9545,16 +9815,16 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>0.41360000000000002</v>
+        <v>1.0002</v>
       </c>
       <c r="L11">
-        <v>0.1588</v>
+        <v>1.0002</v>
       </c>
       <c r="M11" s="1">
-        <v>1.0254259999999999</v>
+        <v>2.5482070000000002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9565,16 +9835,16 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0.82889999999999997</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.67710000000000004</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0.36536970000000002</v>
+        <v>2.1902249999999999E-6</v>
       </c>
       <c r="H12" s="1">
         <v>0.1</v>
@@ -9583,16 +9853,16 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>0.40710000000000002</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L12">
-        <v>0.1547</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1.0324610000000001</v>
+        <v>1.178867E-4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9603,16 +9873,16 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>-1.9975000000000001</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>4.0282</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>4.2608490000000003</v>
+        <v>4.6752930000000001E-7</v>
       </c>
       <c r="H13" s="1">
         <v>0.1</v>
@@ -9621,16 +9891,16 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>0.40029999999999999</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>1.0402849999999999</v>
+        <v>2.4473689999999998E-5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9641,16 +9911,16 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.84319999999999995</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.70069999999999999</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0.33785270000000001</v>
+        <v>6.1416129999999994E-8</v>
       </c>
       <c r="H14" s="1">
         <v>0.1</v>
@@ -9659,27 +9929,27 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>0.40279999999999999</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.15160000000000001</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0375369999999999</v>
+        <v>1.6843620000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -9731,16 +10001,16 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.23530000000000001</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="E17">
-        <v>2.8400000000000002E-2</v>
+        <v>1.0185</v>
       </c>
       <c r="F17" s="1">
-        <v>1.2364440000000001</v>
+        <v>0.15861749999999999</v>
       </c>
       <c r="H17" s="1">
         <v>0.1</v>
@@ -9749,16 +10019,16 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>-6.8099999999999994E-2</v>
+        <v>1.0058</v>
       </c>
       <c r="L17">
-        <v>1.4E-3</v>
+        <v>1.0037</v>
       </c>
       <c r="M17" s="1">
-        <v>1.4621459999999999</v>
+        <v>6.8342660000000003E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9769,16 +10039,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>8.4699999999999998E-2</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="E18">
-        <v>-2.7000000000000001E-3</v>
+        <v>1.006</v>
       </c>
       <c r="F18" s="1">
-        <v>1.3575809999999999</v>
+        <v>9.8923359999999998E-3</v>
       </c>
       <c r="H18" s="1">
         <v>0.1</v>
@@ -9787,16 +10057,16 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.50070000000000003</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="L18">
-        <v>0.25040000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>0.90068999999999999</v>
+        <v>7.160001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9807,16 +10077,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>-1.1299999999999999E-2</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="E19">
-        <v>-9.7000000000000003E-3</v>
+        <v>1.0016</v>
       </c>
       <c r="F19" s="1">
-        <v>1.429041</v>
+        <v>8.6536330000000009E-3</v>
       </c>
       <c r="H19" s="1">
         <v>0.1</v>
@@ -9825,16 +10095,16 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>6.4399999999999999E-2</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="L19">
-        <v>1.03E-2</v>
+        <v>1.0024</v>
       </c>
       <c r="M19" s="1">
-        <v>1.361955</v>
+        <v>3.6798569999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9845,16 +10115,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>-0.10489999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="E20">
-        <v>2E-3</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F20" s="1">
-        <v>1.4889110000000001</v>
+        <v>7.3062579999999999E-4</v>
       </c>
       <c r="H20" s="1">
         <v>0.1</v>
@@ -9863,16 +10133,16 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>8.6099999999999996E-2</v>
+        <v>0.999</v>
       </c>
       <c r="L20">
-        <v>1.03E-2</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="M20" s="1">
-        <v>1.3471329999999999</v>
+        <v>1.782343E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9883,16 +10153,16 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>0.24940000000000001</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="E21">
-        <v>6.4199999999999993E-2</v>
+        <v>1.0001</v>
       </c>
       <c r="F21" s="1">
-        <v>1.1996230000000001</v>
+        <v>2.4601860000000002E-4</v>
       </c>
       <c r="H21" s="1">
         <v>0.1</v>
@@ -9901,16 +10171,16 @@
         <v>9</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>0.14319999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="L21">
-        <v>2.1600000000000001E-2</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>1.3005580000000001</v>
+        <v>3.83432E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9921,16 +10191,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>0.43059999999999998</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.17280000000000001</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0041850000000001</v>
+        <v>4.5562339999999999E-5</v>
       </c>
       <c r="H22" s="1">
         <v>0.1</v>
@@ -9939,16 +10209,16 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>-6.0999999999999999E-2</v>
+        <v>0.996</v>
       </c>
       <c r="L22">
-        <v>-2.5000000000000001E-3</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1.4596389999999999</v>
+        <v>4.0099899999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -9959,16 +10229,16 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>0.36930000000000002</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.13519999999999999</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0703389999999999</v>
+        <v>1.10719E-5</v>
       </c>
       <c r="H23" s="1">
         <v>0.1</v>
@@ -9977,16 +10247,16 @@
         <v>11</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K23">
-        <v>0.66249999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="L23">
-        <v>0.43640000000000001</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>0.65690970000000004</v>
+        <v>6.0163009999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -9997,16 +10267,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>-0.13070000000000001</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>8.6E-3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>1.5038009999999999</v>
+        <v>2.389393E-5</v>
       </c>
       <c r="H24" s="1">
         <v>0.1</v>
@@ -10015,16 +10285,16 @@
         <v>12</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24">
-        <v>0.38250000000000001</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="L24">
-        <v>0.14319999999999999</v>
+        <v>1.0002</v>
       </c>
       <c r="M24" s="1">
-        <v>1.056149</v>
+        <v>7.1543529999999996E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -10035,16 +10305,16 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>-0.14280000000000001</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3.2399999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1.497371</v>
+        <v>2.0556479999999999E-6</v>
       </c>
       <c r="H25" s="1">
         <v>0.1</v>
@@ -10053,16 +10323,16 @@
         <v>13</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>-6.0999999999999999E-2</v>
+        <v>0.999</v>
       </c>
       <c r="L25">
-        <v>-2.2000000000000001E-3</v>
+        <v>1.0001</v>
       </c>
       <c r="M25" s="1">
-        <v>1.459476</v>
+        <v>1.031073E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10073,16 +10343,16 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>-0.15240000000000001</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1.9599999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1.51302</v>
+        <v>2.051082E-7</v>
       </c>
       <c r="H26" s="1">
         <v>0.1</v>
@@ -10091,27 +10361,27 @@
         <v>14</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>-6.4199999999999993E-2</v>
+        <v>0.998</v>
       </c>
       <c r="L26">
-        <v>-3.0999999999999999E-3</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1.4624200000000001</v>
+        <v>2.0393910000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>9</v>
@@ -10163,16 +10433,16 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.33500000000000002</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="E29">
-        <v>9.5200000000000007E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F29" s="1">
-        <v>1.1228720000000001</v>
+        <v>1.8909619999999999E-2</v>
       </c>
       <c r="H29" s="1">
         <v>0.1</v>
@@ -10181,16 +10451,16 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>0.1386</v>
+        <v>1.0061</v>
       </c>
       <c r="L29">
-        <v>2.69E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="M29" s="1">
-        <v>1.2996160000000001</v>
+        <v>6.0948959999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,16 +10471,16 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>0.20619999999999999</v>
+        <v>1.0059</v>
       </c>
       <c r="E30">
-        <v>1.37E-2</v>
+        <v>1.0001</v>
       </c>
       <c r="F30" s="1">
-        <v>1.2660830000000001</v>
+        <v>5.8941810000000001E-3</v>
       </c>
       <c r="H30" s="1">
         <v>0.1</v>
@@ -10219,16 +10489,16 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>8.6199999999999999E-2</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="L30">
-        <v>2.23E-2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
-        <v>1.338273</v>
+        <v>2.4142069999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -10239,16 +10509,16 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>0.66400000000000003</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="E31">
-        <v>0.43509999999999999</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>0.65732029999999997</v>
+        <v>1.156776E-3</v>
       </c>
       <c r="H31" s="1">
         <v>0.1</v>
@@ -10257,16 +10527,16 @@
         <v>7</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>0.35160000000000002</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.1046</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>1.105507</v>
+        <v>3.5213840000000001E-5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -10277,16 +10547,16 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>0.20910000000000001</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>6.7000000000000002E-3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>1.269671</v>
+        <v>3.8222320000000003E-5</v>
       </c>
       <c r="H32" s="1">
         <v>0.1</v>
@@ -10295,16 +10565,16 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>0.27710000000000001</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="L32">
-        <v>4.7600000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>1.1957139999999999</v>
+        <v>6.5568549999999999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -10315,16 +10585,16 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0.1784</v>
+        <v>1.0001</v>
       </c>
       <c r="E33">
-        <v>-6.3E-3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1.299131</v>
+        <v>1.2076490000000001E-4</v>
       </c>
       <c r="H33" s="1">
         <v>0.1</v>
@@ -10333,16 +10603,16 @@
         <v>9</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>0.1787</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="L33">
-        <v>-3.0999999999999999E-3</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>1.296419</v>
+        <v>3.8656930000000001E-4</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -10353,16 +10623,16 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0.17660000000000001</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>-6.1999999999999998E-3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1.300179</v>
+        <v>1.245541E-5</v>
       </c>
       <c r="H34" s="1">
         <v>0.1</v>
@@ -10371,16 +10641,16 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>0.28520000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L34">
-        <v>5.3199999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="1">
-        <v>1.1863109999999999</v>
+        <v>4.8468289999999999E-4</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -10391,16 +10661,16 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0.41760000000000003</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0.14649999999999999</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1.0332969999999999</v>
+        <v>3.1314420000000001E-6</v>
       </c>
       <c r="H35" s="1">
         <v>0.1</v>
@@ -10409,16 +10679,16 @@
         <v>11</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>0.1318</v>
+        <v>1.0002</v>
       </c>
       <c r="L35">
-        <v>3.5099999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1">
-        <v>1.298017</v>
+        <v>2.4792070000000002E-4</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -10429,16 +10699,16 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0.27289999999999998</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>4.07E-2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1.203754</v>
+        <v>1.038358E-6</v>
       </c>
       <c r="H36" s="1">
         <v>0.1</v>
@@ -10447,16 +10717,16 @@
         <v>12</v>
       </c>
       <c r="J36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K36">
-        <v>0.25269999999999998</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>3.1800000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1">
-        <v>1.2230780000000001</v>
+        <v>3.1815059999999997E-5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -10470,13 +10740,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>0.2142</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>7.7000000000000002E-3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1.2657389999999999</v>
+        <v>8.0410270000000001E-7</v>
       </c>
       <c r="H37" s="1">
         <v>0.1</v>
@@ -10485,16 +10755,16 @@
         <v>13</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>4.1300000000000003E-2</v>
+        <v>1.0001</v>
       </c>
       <c r="L37">
-        <v>-3.5499999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>1.4111659999999999</v>
+        <v>7.5048190000000004E-5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -10505,16 +10775,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>0.38769999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0.1217</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1.0707009999999999</v>
+        <v>8.6489909999999993E-8</v>
       </c>
       <c r="H38" s="1">
         <v>0.1</v>
@@ -10523,27 +10793,27 @@
         <v>14</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>0.63149999999999995</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L38">
-        <v>0.39240000000000003</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>0.71065480000000003</v>
+        <v>6.9829919999999995E-5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -10598,13 +10868,13 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>-0.2112</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="E41">
-        <v>3.7999999999999999E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F41" s="1">
-        <v>1.5467630000000001</v>
+        <v>1.8909619999999999E-2</v>
       </c>
       <c r="H41" s="1">
         <v>0.1</v>
@@ -10613,16 +10883,16 @@
         <v>5</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>-5.1299999999999998E-2</v>
+        <v>1.0061</v>
       </c>
       <c r="L41">
-        <v>-3.5999999999999999E-3</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="M41" s="1">
-        <v>1.4534389999999999</v>
+        <v>6.094894E-3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -10636,13 +10906,13 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>-0.1145</v>
+        <v>1.0059</v>
       </c>
       <c r="E42">
-        <v>9.1000000000000004E-3</v>
+        <v>1.0001</v>
       </c>
       <c r="F42" s="1">
-        <v>1.491323</v>
+        <v>5.8941820000000004E-3</v>
       </c>
       <c r="H42" s="1">
         <v>0.1</v>
@@ -10651,16 +10921,16 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>-0.1052</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="L42">
-        <v>-1.4200000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>1.500041</v>
+        <v>2.4142069999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -10671,16 +10941,16 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>0.40129999999999999</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="E43">
-        <v>0.14990000000000001</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1.039747</v>
+        <v>1.1567750000000001E-3</v>
       </c>
       <c r="H43" s="1">
         <v>0.1</v>
@@ -10689,16 +10959,16 @@
         <v>7</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>7.6200000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>-3.9800000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="1">
-        <v>1.3908860000000001</v>
+        <v>3.5213789999999997E-5</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -10709,16 +10979,16 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>0.21310000000000001</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>4.07E-2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1.2407550000000001</v>
+        <v>3.822237E-5</v>
       </c>
       <c r="H44" s="1">
         <v>0.1</v>
@@ -10727,16 +10997,16 @@
         <v>8</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K44">
-        <v>5.8000000000000003E-2</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="L44">
-        <v>-1.47E-2</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
-        <v>1.3845700000000001</v>
+        <v>6.5568560000000002E-4</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -10747,16 +11017,16 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>0.36730000000000002</v>
+        <v>1.0001</v>
       </c>
       <c r="E45">
-        <v>0.1043</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1.0966640000000001</v>
+        <v>1.207648E-4</v>
       </c>
       <c r="H45" s="1">
         <v>0.1</v>
@@ -10765,16 +11035,16 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>-9.0999999999999998E-2</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="L45">
-        <v>-2.75E-2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <v>1.498653</v>
+        <v>3.8656930000000001E-4</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -10785,16 +11055,16 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>0.57699999999999996</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0.30709999999999998</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>0.81182900000000002</v>
+        <v>1.245638E-5</v>
       </c>
       <c r="H46" s="1">
         <v>0.1</v>
@@ -10803,16 +11073,16 @@
         <v>10</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K46">
-        <v>0.1236</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L46">
-        <v>1.8100000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
-        <v>1.3161750000000001</v>
+        <v>4.8468289999999999E-4</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -10823,16 +11093,16 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>0.4617</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0.1852</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0.97655700000000001</v>
+        <v>3.1315250000000001E-6</v>
       </c>
       <c r="H47" s="1">
         <v>0.1</v>
@@ -10841,16 +11111,16 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>0.34339999999999998</v>
+        <v>1.0002</v>
       </c>
       <c r="L47">
-        <v>0.106</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>1.1092070000000001</v>
+        <v>2.4792050000000001E-4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -10861,16 +11131,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>0.62990000000000002</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0.38080000000000003</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>0.72134940000000003</v>
+        <v>1.018082E-6</v>
       </c>
       <c r="H48" s="1">
         <v>0.1</v>
@@ -10879,16 +11149,16 @@
         <v>12</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>0.32290000000000002</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>9.1999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
-        <v>1.132649</v>
+        <v>3.1815120000000001E-5</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -10899,16 +11169,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>0.77229999999999999</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0.5837</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>0.47445599999999999</v>
+        <v>8.0409349999999999E-7</v>
       </c>
       <c r="H49" s="1">
         <v>0.1</v>
@@ -10917,16 +11187,16 @@
         <v>13</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K49">
-        <v>-1.6000000000000001E-3</v>
+        <v>1.0001</v>
       </c>
       <c r="L49">
-        <v>-4.8300000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1">
-        <v>1.4498709999999999</v>
+        <v>7.5048119999999999E-5</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -10937,16 +11207,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>0.58030000000000004</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0.3115</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>0.80631750000000002</v>
+        <v>8.6452060000000005E-8</v>
       </c>
       <c r="H50" s="1">
         <v>0.1</v>
@@ -10955,27 +11225,27 @@
         <v>14</v>
       </c>
       <c r="J50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K50">
-        <v>0.17849999999999999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L50">
-        <v>3.4700000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1">
-        <v>1.267533</v>
+        <v>6.9829919999999995E-5</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>11</v>
@@ -11027,16 +11297,16 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>0.31409999999999999</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="E53">
-        <v>7.8799999999999995E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F53" s="1">
-        <v>1.1485179999999999</v>
+        <v>1.890971E-2</v>
       </c>
       <c r="H53" s="1">
         <v>0.1</v>
@@ -11045,16 +11315,16 @@
         <v>5</v>
       </c>
       <c r="J53">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K53">
-        <v>0.22589999999999999</v>
+        <v>1.0061</v>
       </c>
       <c r="L53">
-        <v>3.8300000000000001E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="M53" s="1">
-        <v>1.2345200000000001</v>
+        <v>6.0940050000000004E-3</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -11065,16 +11335,16 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>0.125</v>
+        <v>1.0059</v>
       </c>
       <c r="E54">
-        <v>-4.7999999999999996E-3</v>
+        <v>1.0001</v>
       </c>
       <c r="F54" s="1">
-        <v>1.3323389999999999</v>
+        <v>5.8947280000000001E-3</v>
       </c>
       <c r="H54" s="1">
         <v>0.1</v>
@@ -11083,16 +11353,16 @@
         <v>6</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>0.3805</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="L54">
-        <v>0.1278</v>
+        <v>1</v>
       </c>
       <c r="M54" s="1">
-        <v>1.0697859999999999</v>
+        <v>2.414116E-3</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -11103,16 +11373,16 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>0.56369999999999998</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="E55">
-        <v>0.30330000000000001</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>0.82202869999999995</v>
+        <v>1.1565530000000001E-3</v>
       </c>
       <c r="H55" s="1">
         <v>0.1</v>
@@ -11121,16 +11391,16 @@
         <v>7</v>
       </c>
       <c r="J55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K55">
-        <v>0.45600000000000002</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>0.20169999999999999</v>
+        <v>1</v>
       </c>
       <c r="M55" s="1">
-        <v>0.96598589999999995</v>
+        <v>3.5195840000000002E-5</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -11141,16 +11411,16 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>0.64129999999999998</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0.40060000000000001</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>0.69854150000000004</v>
+        <v>3.8240929999999997E-5</v>
       </c>
       <c r="H56" s="1">
         <v>0.1</v>
@@ -11159,16 +11429,16 @@
         <v>8</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K56">
-        <v>0.35749999999999998</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="L56">
-        <v>0.1192</v>
+        <v>1</v>
       </c>
       <c r="M56" s="1">
-        <v>1.0902259999999999</v>
+        <v>6.5570549999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -11179,16 +11449,16 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>0.82050000000000001</v>
+        <v>1.0001</v>
       </c>
       <c r="E57">
-        <v>0.67169999999999996</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>0.37412109999999998</v>
+        <v>1.207574E-4</v>
       </c>
       <c r="H57" s="1">
         <v>0.1</v>
@@ -11197,16 +11467,16 @@
         <v>9</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>0.3886</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="L57">
-        <v>0.1346</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>1.0595559999999999</v>
+        <v>3.8656900000000002E-4</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -11217,16 +11487,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>0.63719999999999999</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0.3947</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>0.70570080000000002</v>
+        <v>1.28427E-5</v>
       </c>
       <c r="H58" s="1">
         <v>0.1</v>
@@ -11235,16 +11505,16 @@
         <v>10</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>0.3266</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L58">
-        <v>9.4100000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="1">
-        <v>1.1287750000000001</v>
+        <v>4.847001E-4</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -11255,16 +11525,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>0.6694</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.44540000000000002</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>0.64561250000000003</v>
+        <v>3.1644909999999999E-6</v>
       </c>
       <c r="H59" s="1">
         <v>0.1</v>
@@ -11273,16 +11543,16 @@
         <v>11</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>0.67469999999999997</v>
+        <v>1.0002</v>
       </c>
       <c r="L59">
-        <v>0.4491</v>
+        <v>1</v>
       </c>
       <c r="M59" s="1">
-        <v>0.63974909999999996</v>
+        <v>2.4785189999999998E-4</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -11293,16 +11563,16 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>0.878</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0.76349999999999996</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>0.26607819999999999</v>
+        <v>3.0098369999999999E-6</v>
       </c>
       <c r="H60" s="1">
         <v>0.1</v>
@@ -11311,16 +11581,16 @@
         <v>12</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K60">
-        <v>0.5675</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0.30819999999999997</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1">
-        <v>0.81590059999999998</v>
+        <v>3.1839479999999998E-5</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -11331,16 +11601,16 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>0.67620000000000002</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0.44719999999999999</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>0.64067300000000005</v>
+        <v>8.0044359999999997E-7</v>
       </c>
       <c r="H61" s="1">
         <v>0.1</v>
@@ -11349,16 +11619,16 @@
         <v>13</v>
       </c>
       <c r="J61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>0.44009999999999999</v>
+        <v>1.0001</v>
       </c>
       <c r="L61">
-        <v>0.18790000000000001</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>0.98646730000000005</v>
+        <v>7.5017909999999999E-5</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -11369,16 +11639,16 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>0.73250000000000004</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0.53439999999999999</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>0.53697989999999995</v>
+        <v>7.1421890000000001E-8</v>
       </c>
       <c r="H62" s="1">
         <v>0.1</v>
@@ -11387,16 +11657,16 @@
         <v>14</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>0.52580000000000005</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L62">
-        <v>0.26679999999999998</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <v>0.87315220000000004</v>
+        <v>6.9831790000000004E-5</v>
       </c>
     </row>
   </sheetData>
@@ -11409,7 +11679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C776B-F0CC-4A8F-A87C-6443B1B25425}">
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:M62"/>
     </sheetView>
   </sheetViews>
@@ -11907,7 +12177,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>0.84250000000000003</v>
@@ -11925,16 +12195,16 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>-0.1585</v>
+        <v>1.0058</v>
       </c>
       <c r="L17">
-        <v>0.95309999999999995</v>
+        <v>1.0037</v>
       </c>
       <c r="M17" s="1">
-        <v>1.1594789999999999</v>
+        <v>6.8342660000000003E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -11945,16 +12215,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>0.56210000000000004</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="E18">
-        <v>1.1006</v>
+        <v>1.006</v>
       </c>
       <c r="F18" s="1">
-        <v>0.44931359999999998</v>
+        <v>9.8923359999999998E-3</v>
       </c>
       <c r="H18" s="1">
         <v>0.1</v>
@@ -11963,16 +12233,16 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.57220000000000004</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="L18">
-        <v>1.0289999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>0.4287415</v>
+        <v>7.160001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -11983,16 +12253,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0.95950000000000002</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="E19">
-        <v>0.99750000000000005</v>
+        <v>1.0016</v>
       </c>
       <c r="F19" s="1">
-        <v>4.054638E-2</v>
+        <v>8.6536330000000009E-3</v>
       </c>
       <c r="H19" s="1">
         <v>0.1</v>
@@ -12001,16 +12271,16 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.91790000000000005</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="L19">
-        <v>1.0074000000000001</v>
+        <v>1.0024</v>
       </c>
       <c r="M19" s="1">
-        <v>8.2453209999999999E-2</v>
+        <v>3.6798569999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -12021,16 +12291,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>0.99909999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="E20">
-        <v>1.0004999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0227509999999999E-3</v>
+        <v>7.3062579999999999E-4</v>
       </c>
       <c r="H20" s="1">
         <v>0.1</v>
@@ -12039,16 +12309,16 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.99170000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="L20">
-        <v>0.99860000000000004</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="M20" s="1">
-        <v>8.4531390000000001E-3</v>
+        <v>1.782343E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -12059,16 +12329,16 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>0.99139999999999995</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="E21">
-        <v>1.0005999999999999</v>
+        <v>1.0001</v>
       </c>
       <c r="F21" s="1">
-        <v>8.6022500000000005E-3</v>
+        <v>2.4601860000000002E-4</v>
       </c>
       <c r="H21" s="1">
         <v>0.1</v>
@@ -12077,16 +12347,16 @@
         <v>9</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>0.99229999999999996</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="L21">
-        <v>0.99650000000000005</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>8.5180780000000001E-3</v>
+        <v>3.83432E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -12097,16 +12367,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>0.93430000000000002</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1.0108999999999999</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>6.6623689999999999E-2</v>
+        <v>4.5562339999999999E-5</v>
       </c>
       <c r="H22" s="1">
         <v>0.1</v>
@@ -12135,16 +12405,16 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>0.99099999999999999</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.99750000000000005</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>9.3918339999999999E-3</v>
+        <v>1.10719E-5</v>
       </c>
       <c r="H23" s="1">
         <v>0.1</v>
@@ -12173,16 +12443,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>0.77529999999999999</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1.0308999999999999</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0.2268617</v>
+        <v>2.389393E-5</v>
       </c>
       <c r="H24" s="1">
         <v>0.1</v>
@@ -12191,16 +12461,16 @@
         <v>12</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24">
-        <v>0.99229999999999996</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="L24">
-        <v>0.99960000000000004</v>
+        <v>1.0002</v>
       </c>
       <c r="M24" s="1">
-        <v>7.737056E-3</v>
+        <v>7.1543529999999996E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -12211,16 +12481,16 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>1.0013000000000001</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1.0003</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1.3517539999999999E-3</v>
+        <v>2.0556479999999999E-6</v>
       </c>
       <c r="H25" s="1">
         <v>0.1</v>
@@ -12249,16 +12519,16 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>0.97040000000000004</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.99480000000000002</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>3.0080269999999999E-2</v>
+        <v>2.051082E-7</v>
       </c>
       <c r="H26" s="1">
         <v>0.1</v>
@@ -13585,7 +13855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7682C-0B9D-47FF-B81B-90D34A50124F}">
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:M62"/>
     </sheetView>
   </sheetViews>
@@ -13651,7 +13921,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>4.4999999999999997E-3</v>
@@ -13669,7 +13939,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <v>0.38750000000000001</v>
@@ -13689,16 +13959,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>3.09E-2</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>1.7299999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>1.380147</v>
+        <v>1.3690899999999999</v>
       </c>
       <c r="H6" s="1">
         <v>0.1</v>
@@ -13727,7 +13997,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>0.46600000000000003</v>
@@ -13765,16 +14035,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>0.81730000000000003</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="E8">
-        <v>0.65869999999999995</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="F8" s="1">
-        <v>0.38712829999999998</v>
+        <v>1.1022469999999999E-2</v>
       </c>
       <c r="H8" s="1">
         <v>0.1</v>
@@ -13783,7 +14053,7 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8">
         <v>0.3881</v>
@@ -13803,16 +14073,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>0.65380000000000005</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="E9">
-        <v>0.4088</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="F9" s="1">
-        <v>0.68510550000000003</v>
+        <v>1.4022710000000001E-2</v>
       </c>
       <c r="H9" s="1">
         <v>0.1</v>
@@ -13897,7 +14167,7 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <v>0.41360000000000002</v>
@@ -13917,16 +14187,16 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>0.82889999999999997</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.67710000000000004</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0.36536970000000002</v>
+        <v>1.6514799999999999E-7</v>
       </c>
       <c r="H12" s="1">
         <v>0.1</v>
@@ -13935,7 +14205,7 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>0.40710000000000002</v>
@@ -13973,7 +14243,7 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <v>0.40029999999999999</v>
@@ -13993,16 +14263,16 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>0.84319999999999995</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.70069999999999999</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0.33785270000000001</v>
+        <v>2.4952560000000001E-7</v>
       </c>
       <c r="H14" s="1">
         <v>0.1</v>
@@ -14011,7 +14281,7 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <v>0.40279999999999999</v>
@@ -14101,16 +14371,16 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>-6.8099999999999994E-2</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="L17">
-        <v>1.4E-3</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1.4621459999999999</v>
+        <v>1.0741860000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -14159,16 +14429,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>-1.1299999999999999E-2</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="E19">
-        <v>-9.7000000000000003E-3</v>
+        <v>0.1862</v>
       </c>
       <c r="F19" s="1">
-        <v>1.429041</v>
+        <v>0.9911896</v>
       </c>
       <c r="H19" s="1">
         <v>0.1</v>
@@ -14177,16 +14447,16 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>6.4399999999999999E-2</v>
+        <v>0.45269999999999999</v>
       </c>
       <c r="L19">
-        <v>1.03E-2</v>
+        <v>0.2009</v>
       </c>
       <c r="M19" s="1">
-        <v>1.361955</v>
+        <v>0.96856600000000004</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -14197,16 +14467,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>-0.10489999999999999</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="E20">
-        <v>2E-3</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="F20" s="1">
-        <v>1.4889110000000001</v>
+        <v>0.21585270000000001</v>
       </c>
       <c r="H20" s="1">
         <v>0.1</v>
@@ -14215,16 +14485,16 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K20">
-        <v>8.6099999999999996E-2</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="L20">
-        <v>1.03E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="M20" s="1">
-        <v>1.3471329999999999</v>
+        <v>1.139645</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -14235,16 +14505,16 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>0.24940000000000001</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="E21">
-        <v>6.4199999999999993E-2</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F21" s="1">
-        <v>1.1996230000000001</v>
+        <v>0.79497220000000002</v>
       </c>
       <c r="H21" s="1">
         <v>0.1</v>
@@ -14253,16 +14523,16 @@
         <v>9</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K21">
-        <v>0.14319999999999999</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="L21">
-        <v>2.1600000000000001E-2</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="M21" s="1">
-        <v>1.3005580000000001</v>
+        <v>1.130878</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -14273,16 +14543,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>0.43059999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E22">
-        <v>0.17280000000000001</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0041850000000001</v>
+        <v>0.29873090000000002</v>
       </c>
       <c r="H22" s="1">
         <v>0.1</v>
@@ -14291,16 +14561,16 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K22">
-        <v>-6.0999999999999999E-2</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="L22">
-        <v>-2.5000000000000001E-3</v>
+        <v>0.25409999999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1.4596389999999999</v>
+        <v>0.89376489999999997</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -14311,16 +14581,16 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>0.36930000000000002</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="E23">
-        <v>0.13519999999999999</v>
+        <v>0.37830000000000003</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0703389999999999</v>
+        <v>0.73085230000000001</v>
       </c>
       <c r="H23" s="1">
         <v>0.1</v>
@@ -14349,16 +14619,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>-0.13070000000000001</v>
+        <v>0.6401</v>
       </c>
       <c r="E24">
-        <v>8.6E-3</v>
+        <v>0.4088</v>
       </c>
       <c r="F24" s="1">
-        <v>1.5038009999999999</v>
+        <v>0.69207960000000002</v>
       </c>
       <c r="H24" s="1">
         <v>0.1</v>
@@ -14367,7 +14637,7 @@
         <v>12</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <v>0.38250000000000001</v>
@@ -14387,16 +14657,16 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>-0.14280000000000001</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="E25">
-        <v>3.2399999999999998E-2</v>
+        <v>0.55259999999999998</v>
       </c>
       <c r="F25" s="1">
-        <v>1.497371</v>
+        <v>0.51491140000000002</v>
       </c>
       <c r="H25" s="1">
         <v>0.1</v>
@@ -14405,16 +14675,16 @@
         <v>13</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>-6.0999999999999999E-2</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="L25">
-        <v>-2.2000000000000001E-3</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1.459476</v>
+        <v>0.93531589999999998</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -14425,16 +14695,16 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>-0.15240000000000001</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="E26">
-        <v>1.9599999999999999E-2</v>
+        <v>0.434</v>
       </c>
       <c r="F26" s="1">
-        <v>1.51302</v>
+        <v>0.66053050000000002</v>
       </c>
       <c r="H26" s="1">
         <v>0.1</v>
@@ -14443,16 +14713,16 @@
         <v>14</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>-6.4199999999999993E-2</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="L26">
-        <v>-3.0999999999999999E-3</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1.4624200000000001</v>
+        <v>1.05847</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -14609,16 +14879,16 @@
         <v>7</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K31">
-        <v>0.35160000000000002</v>
+        <v>0.6028</v>
       </c>
       <c r="L31">
-        <v>0.1046</v>
+        <v>0.3508</v>
       </c>
       <c r="M31" s="1">
-        <v>1.105507</v>
+        <v>0.76110230000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -14965,16 +15235,16 @@
         <v>5</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>-5.1299999999999998E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="L41">
-        <v>-3.5999999999999999E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="M41" s="1">
-        <v>1.4534389999999999</v>
+        <v>1.3782380000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -15003,16 +15273,16 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K42">
-        <v>-0.1052</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="L42">
-        <v>-1.4200000000000001E-2</v>
+        <v>0.17979999999999999</v>
       </c>
       <c r="M42" s="1">
-        <v>1.500041</v>
+        <v>0.9967589</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -15041,16 +15311,16 @@
         <v>7</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K43">
-        <v>7.6200000000000004E-2</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="L43">
-        <v>-3.9800000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="M43" s="1">
-        <v>1.3908860000000001</v>
+        <v>1.0817889999999999</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -15061,16 +15331,16 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>0.21310000000000001</v>
+        <v>1.0474000000000001</v>
       </c>
       <c r="E44">
-        <v>4.07E-2</v>
+        <v>1.1009</v>
       </c>
       <c r="F44" s="1">
-        <v>1.2407550000000001</v>
+        <v>0.1114798</v>
       </c>
       <c r="H44" s="1">
         <v>0.1</v>
@@ -15079,16 +15349,16 @@
         <v>8</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>5.8000000000000003E-2</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="L44">
-        <v>-1.47E-2</v>
+        <v>0.29880000000000001</v>
       </c>
       <c r="M44" s="1">
-        <v>1.3845700000000001</v>
+        <v>0.8305226</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -15099,16 +15369,16 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>0.36730000000000002</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="E45">
-        <v>0.1043</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="F45" s="1">
-        <v>1.0966640000000001</v>
+        <v>1.44198E-2</v>
       </c>
       <c r="H45" s="1">
         <v>0.1</v>
@@ -15117,16 +15387,16 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>-9.0999999999999998E-2</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="L45">
-        <v>-2.75E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="M45" s="1">
-        <v>1.498653</v>
+        <v>1.223929</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -15137,16 +15407,16 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>0.57699999999999996</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0.30709999999999998</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>0.81182900000000002</v>
+        <v>8.3844099999999999E-5</v>
       </c>
       <c r="H46" s="1">
         <v>0.1</v>
@@ -15155,16 +15425,16 @@
         <v>10</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K46">
-        <v>0.1236</v>
+        <v>0.56720000000000004</v>
       </c>
       <c r="L46">
-        <v>1.8100000000000002E-2</v>
+        <v>0.30990000000000001</v>
       </c>
       <c r="M46" s="1">
-        <v>1.3161750000000001</v>
+        <v>0.81456580000000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -15175,16 +15445,16 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>0.4617</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0.1852</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0.97655700000000001</v>
+        <v>1.178847E-5</v>
       </c>
       <c r="H47" s="1">
         <v>0.1</v>
@@ -15213,16 +15483,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>0.62990000000000002</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0.38080000000000003</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>0.72134940000000003</v>
+        <v>9.1947670000000002E-7</v>
       </c>
       <c r="H48" s="1">
         <v>0.1</v>
@@ -15251,16 +15521,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>0.77229999999999999</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0.5837</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>0.47445599999999999</v>
+        <v>4.877373E-7</v>
       </c>
       <c r="H49" s="1">
         <v>0.1</v>
@@ -15269,16 +15539,16 @@
         <v>13</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K49">
-        <v>-1.6000000000000001E-3</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="L49">
-        <v>-4.8300000000000003E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="M49" s="1">
-        <v>1.4498709999999999</v>
+        <v>1.1407799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -15289,16 +15559,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>0.58030000000000004</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0.3115</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>0.80631750000000002</v>
+        <v>6.4444679999999996E-8</v>
       </c>
       <c r="H50" s="1">
         <v>0.1</v>
@@ -15307,16 +15577,16 @@
         <v>14</v>
       </c>
       <c r="J50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K50">
-        <v>0.17849999999999999</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="L50">
-        <v>3.4700000000000002E-2</v>
+        <v>0.17430000000000001</v>
       </c>
       <c r="M50" s="1">
-        <v>1.267533</v>
+        <v>0.99849330000000003</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -15397,16 +15667,16 @@
         <v>5</v>
       </c>
       <c r="J53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K53">
-        <v>0.22589999999999999</v>
+        <v>0.6552</v>
       </c>
       <c r="L53">
-        <v>3.8300000000000001E-2</v>
+        <v>0.4234</v>
       </c>
       <c r="M53" s="1">
-        <v>1.2345200000000001</v>
+        <v>0.67187010000000003</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -15435,16 +15705,16 @@
         <v>6</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K54">
-        <v>0.3805</v>
+        <v>0.3654</v>
       </c>
       <c r="L54">
-        <v>0.1278</v>
+        <v>0.1249</v>
       </c>
       <c r="M54" s="1">
-        <v>1.0697859999999999</v>
+        <v>1.0809329999999999</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -15493,16 +15763,16 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>0.64129999999999998</v>
+        <v>0.93089999999999995</v>
       </c>
       <c r="E56">
-        <v>0.40060000000000001</v>
+        <v>0.8639</v>
       </c>
       <c r="F56" s="1">
-        <v>0.69854150000000004</v>
+        <v>0.1526025</v>
       </c>
       <c r="H56" s="1">
         <v>0.1</v>
@@ -15511,7 +15781,7 @@
         <v>8</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K56">
         <v>0.35749999999999998</v>
@@ -15531,16 +15801,16 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>0.82050000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="E57">
-        <v>0.67169999999999996</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F57" s="1">
-        <v>0.37412109999999998</v>
+        <v>1.038611E-2</v>
       </c>
       <c r="H57" s="1">
         <v>0.1</v>
@@ -15549,16 +15819,16 @@
         <v>9</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K57">
-        <v>0.3886</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="L57">
-        <v>0.1346</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="M57" s="1">
-        <v>1.0595559999999999</v>
+        <v>1.0663830000000001</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -15569,16 +15839,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>0.63719999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="E58">
-        <v>0.3947</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F58" s="1">
-        <v>0.70570080000000002</v>
+        <v>7.5648909999999998E-4</v>
       </c>
       <c r="H58" s="1">
         <v>0.1</v>
@@ -15587,16 +15857,16 @@
         <v>10</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K58">
-        <v>0.3266</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="L58">
-        <v>9.4100000000000003E-2</v>
+        <v>0.1171</v>
       </c>
       <c r="M58" s="1">
-        <v>1.1287750000000001</v>
+        <v>1.089872</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -15607,16 +15877,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>0.6694</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.44540000000000002</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>0.64561250000000003</v>
+        <v>1.7156179999999999E-5</v>
       </c>
       <c r="H59" s="1">
         <v>0.1</v>
@@ -15645,16 +15915,16 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>0.878</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0.76349999999999996</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>0.26607819999999999</v>
+        <v>3.3582420000000002E-6</v>
       </c>
       <c r="H60" s="1">
         <v>0.1</v>
@@ -15663,7 +15933,7 @@
         <v>12</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K60">
         <v>0.5675</v>
@@ -15683,16 +15953,16 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>0.67620000000000002</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0.44719999999999999</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>0.64067300000000005</v>
+        <v>7.2965650000000005E-7</v>
       </c>
       <c r="H61" s="1">
         <v>0.1</v>
@@ -15721,16 +15991,16 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>0.73250000000000004</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0.53439999999999999</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>0.53697989999999995</v>
+        <v>7.0652859999999999E-8</v>
       </c>
       <c r="H62" s="1">
         <v>0.1</v>
